--- a/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
+++ b/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
@@ -12,12 +12,16 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
-    <sheet name="チェックシート(ESXi)" sheetId="4" r:id="rId4"/>
-    <sheet name="テンプレート(ESXi)" sheetId="5" r:id="rId5"/>
+    <sheet name="利用手順" sheetId="6" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
+    <sheet name="チェックシート(ESXi)" sheetId="4" r:id="rId5"/>
+    <sheet name="テンプレート(ESXi)" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$79</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="168">
   <si>
     <t>共通設定</t>
   </si>
@@ -382,13 +386,492 @@
   </si>
   <si>
     <t>データストア数を検索し、別シートに詳細情報を登録します</t>
+  </si>
+  <si>
+    <t>0. 事前準備</t>
+  </si>
+  <si>
+    <t>* VMWare ESXi サーバの構成情報を採取します</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>* .\template\VMWare_ESXi が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>* VMWare Power CLI は v6.x が必要です。 最新のPowerCLI 10.x はAPIの互換性がないためサポート外になります</t>
+    <rPh sb="67" eb="68">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1. プロジェクトディレクトリの作成と移動</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Linux, Windows 標準OSテンプレートと同様に事前に「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>作成したプロジェクトディレクトリを移動します</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>インベントリ採取実行後、同ディレクトリで 各サーバプラットフォームの HW構成情報収集します</t>
+    <rPh sb="21" eb="22">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>「.\template\VMWare_ESXi\ESXiチェックシート.xlsx」(本ファイル)を開きます。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>検査するシナリオID ESXi を指定します。</t>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検査対象サーバのIPを入力します。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID ESXi を入力します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>特定ユーザ</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のユーザ入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したユーザを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CPU数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) 比較項目で対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メモリ[MB]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ESXi</t>
+  </si>
+  <si>
+    <t>192.168.10.100</t>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>notepad++ .\template\VMWare_ESXi\config_esxi.groovy</t>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。vCenterサーバで管理している場合はvCenterの接続情報を、ESXiサーバ単独の場合は ESXi の接続情報を入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>タンドク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>// ESXi接続情報</t>
+  </si>
+  <si>
+    <t>account.VMHost.Test.vCenter  = '192.168.10.100'</t>
+  </si>
+  <si>
+    <t>account.VMHost.Test.user     = 'test_user'</t>
+  </si>
+  <si>
+    <t>account.VMHost.Test.password = 'P@ssword'</t>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\VMWare_ESXi\config_esxi.groovy</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -444,8 +927,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,8 +990,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -645,16 +1141,136 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,10 +1340,71 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="21" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1040,9 +1717,645 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:N79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19" style="23" customWidth="1"/>
+    <col min="4" max="5" width="13.25" style="23" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="23" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="23" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="14" style="23" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="23" customWidth="1"/>
+    <col min="11" max="12" width="13.625" style="23" customWidth="1"/>
+    <col min="13" max="1018" width="8.75" style="23" customWidth="1"/>
+    <col min="1019" max="1020" width="11.625" style="23" customWidth="1"/>
+    <col min="1021" max="1025" width="8.75" style="23" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" s="23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C19" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C20" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C21" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C22" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C23" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C24" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C25" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C26" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C27" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C28" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B34" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B35" s="29">
+        <v>1</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29">
+        <v>4</v>
+      </c>
+      <c r="L35" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B36" s="30">
+        <v>2</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B37" s="30">
+        <v>3</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B38" s="30">
+        <v>4</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B39" s="30">
+        <v>5</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B40" s="30">
+        <v>6</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B41" s="30">
+        <v>7</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B42" s="30">
+        <v>8</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B43" s="30">
+        <v>9</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B44" s="30">
+        <v>10</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B48" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C50" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="33"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B52" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C54" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="36"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="39"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C56" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="39"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C57" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="39"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C58" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="42"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A60" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B62" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C64" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="33"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A66" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B68" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C70" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="33"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B72" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B73" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C75" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="33"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B77" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C79" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="K32:L32"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1472,7 +2785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML15"/>
   <sheetViews>
@@ -1819,7 +3132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -1911,7 +3224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK25"/>
   <sheetViews>
@@ -2353,7 +3666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q102"/>
   <sheetViews>

--- a/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
+++ b/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
@@ -935,7 +935,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,6 +994,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1270,7 +1276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1334,34 +1340,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="2" applyFill="1" applyBorder="1">
@@ -1398,6 +1377,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="21" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1720,621 +1729,1566 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N79"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="19" style="23" customWidth="1"/>
-    <col min="4" max="5" width="13.25" style="23" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="23" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="23" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="14" style="23" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="23" customWidth="1"/>
-    <col min="11" max="12" width="13.625" style="23" customWidth="1"/>
-    <col min="13" max="1018" width="8.75" style="23" customWidth="1"/>
-    <col min="1019" max="1020" width="11.625" style="23" customWidth="1"/>
-    <col min="1021" max="1025" width="8.75" style="23" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="23"/>
+    <col min="1" max="2" width="3.625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="19" style="21" customWidth="1"/>
+    <col min="4" max="5" width="13.25" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="21" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="21" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="14" style="21" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="21" customWidth="1"/>
+    <col min="11" max="12" width="13.625" style="21" customWidth="1"/>
+    <col min="13" max="1018" width="8.75" style="21" customWidth="1"/>
+    <col min="1019" max="1020" width="11.625" style="21" customWidth="1"/>
+    <col min="1021" max="1025" width="8.75" style="21" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="23" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="23" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="23" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="23" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="36" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="23" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="23" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="23" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="36" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="23" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="23" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C19" s="23" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="36" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C20" s="23" t="s">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="36" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C21" s="23" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="36" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C22" s="23" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="36" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C23" s="23" t="s">
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="36" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C24" s="23" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="36" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C25" s="23" t="s">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="36" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C26" s="23" t="s">
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="36" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C27" s="23" t="s">
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="36" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C28" s="23" t="s">
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="36" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="23" t="s">
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B32" s="24"/>
-      <c r="C32" s="25" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27" t="s">
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="36"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="27" t="s">
+      <c r="L33" s="40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B34" s="24" t="s">
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="J34" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="28" t="s">
+      <c r="K34" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="28" t="s">
+      <c r="L34" s="41" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B35" s="29">
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="36"/>
+      <c r="B35" s="42">
         <v>1</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29">
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42">
         <v>4</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L35" s="42">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B36" s="30">
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="36"/>
+      <c r="B36" s="43">
         <v>2</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B37" s="30">
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="36"/>
+      <c r="B37" s="43">
         <v>3</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B38" s="30">
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="36"/>
+      <c r="B38" s="43">
         <v>4</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B39" s="30">
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="36"/>
+      <c r="B39" s="43">
         <v>5</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B40" s="30">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="36"/>
+      <c r="B40" s="43">
         <v>6</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B41" s="30">
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="36"/>
+      <c r="B41" s="43">
         <v>7</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B42" s="30">
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="36"/>
+      <c r="B42" s="43">
         <v>8</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B43" s="30">
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="36"/>
+      <c r="B43" s="43">
         <v>9</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B44" s="30">
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="36"/>
+      <c r="B44" s="43">
         <v>10</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="23" t="s">
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="36" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B48" s="23" t="s">
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C50" s="31" t="s">
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="33"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B52" s="23" t="s">
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="36"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C54" s="34" t="s">
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="36"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C55" s="37"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="39"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C56" s="37" t="s">
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="36"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="36"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="39"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C57" s="37" t="s">
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="36"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="39"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C58" s="40" t="s">
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="36"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="42"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A60" s="23" t="s">
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="36"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="36" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B62" s="23" t="s">
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C64" s="31" t="s">
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="33"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="23" t="s">
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="36"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="36" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B68" s="23" t="s">
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C70" s="31" t="s">
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="33"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B72" s="23" t="s">
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="36"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="36"/>
+      <c r="B72" s="36" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B73" s="23" t="s">
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="36"/>
+      <c r="B73" s="36" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C75" s="31" t="s">
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="33"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B77" s="23" t="s">
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="36"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C79" s="31" t="s">
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="33"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="36"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2377,18 +3331,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="19"/>

--- a/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
+++ b/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="173">
   <si>
     <t>共通設定</t>
   </si>
@@ -865,13 +865,41 @@
   <si>
     <t>getconfig -u db</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>_redmine:IAサーバ</t>
+  </si>
+  <si>
+    <t>OS名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>CPU数</t>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>MEM容量</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -934,8 +962,17 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,18 +1017,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -999,6 +1024,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1313,15 +1344,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1334,79 +1356,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="21" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1731,1564 +1762,1564 @@
   </sheetPr>
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="19" style="21" customWidth="1"/>
-    <col min="4" max="5" width="13.25" style="21" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="21" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="21" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="14" style="21" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="21" customWidth="1"/>
-    <col min="11" max="12" width="13.625" style="21" customWidth="1"/>
-    <col min="13" max="1018" width="8.75" style="21" customWidth="1"/>
-    <col min="1019" max="1020" width="11.625" style="21" customWidth="1"/>
-    <col min="1021" max="1025" width="8.75" style="21" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="21"/>
+    <col min="1" max="2" width="3.625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="19" style="18" customWidth="1"/>
+    <col min="4" max="5" width="13.25" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="18" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="14" style="18" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="18" customWidth="1"/>
+    <col min="11" max="12" width="13.625" style="18" customWidth="1"/>
+    <col min="13" max="1018" width="8.75" style="18" customWidth="1"/>
+    <col min="1019" max="1020" width="11.625" style="18" customWidth="1"/>
+    <col min="1021" max="1025" width="8.75" style="18" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="36"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="I33" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="J33" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="40" t="s">
+      <c r="K33" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="40" t="s">
+      <c r="L33" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="37" t="s">
+      <c r="J34" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="41" t="s">
+      <c r="K34" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="41" t="s">
+      <c r="L34" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="36"/>
-      <c r="B35" s="42">
+      <c r="A35" s="31"/>
+      <c r="B35" s="35">
         <v>1</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42">
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35">
         <v>4</v>
       </c>
-      <c r="L35" s="42">
+      <c r="L35" s="35">
         <v>24</v>
       </c>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="36"/>
-      <c r="B36" s="43">
+      <c r="A36" s="31"/>
+      <c r="B36" s="36">
         <v>2</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="36"/>
-      <c r="B37" s="43">
+      <c r="A37" s="31"/>
+      <c r="B37" s="36">
         <v>3</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="36"/>
-      <c r="B38" s="43">
+      <c r="A38" s="31"/>
+      <c r="B38" s="36">
         <v>4</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="36"/>
-      <c r="B39" s="43">
+      <c r="A39" s="31"/>
+      <c r="B39" s="36">
         <v>5</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="36"/>
-      <c r="B40" s="43">
+      <c r="A40" s="31"/>
+      <c r="B40" s="36">
         <v>6</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="36"/>
-      <c r="B41" s="43">
+      <c r="A41" s="31"/>
+      <c r="B41" s="36">
         <v>7</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="36"/>
-      <c r="B42" s="43">
+      <c r="A42" s="31"/>
+      <c r="B42" s="36">
         <v>8</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="36"/>
-      <c r="B43" s="43">
+      <c r="A43" s="31"/>
+      <c r="B43" s="36">
         <v>9</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="36"/>
-      <c r="B44" s="43">
+      <c r="A44" s="31"/>
+      <c r="B44" s="36">
         <v>10</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36" t="s">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="22" t="s">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="36"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="31"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36" t="s">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="36"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="25" t="s">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="36"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="31"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="36"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="31"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="28" t="s">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="36"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="31"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="28" t="s">
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="36"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="31"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="31" t="s">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="36"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="31"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="36"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="36"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="36"/>
-      <c r="B62" s="36" t="s">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="36"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="22" t="s">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="36"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="31"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="36"/>
-      <c r="B68" s="36" t="s">
+      <c r="A68" s="31"/>
+      <c r="B68" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="22" t="s">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="36"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="31"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36" t="s">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="31"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36" t="s">
+      <c r="A73" s="31"/>
+      <c r="B73" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="36"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="22" t="s">
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="36"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="31"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36" t="s">
+      <c r="A77" s="31"/>
+      <c r="B77" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A79" s="36"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="22" t="s">
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="36"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="31"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A80" s="36"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3331,49 +3362,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3413,21 +3444,21 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14">
         <v>4</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <v>24</v>
       </c>
     </row>
@@ -3443,8 +3474,8 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -3458,8 +3489,8 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -3473,8 +3504,8 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -3488,8 +3519,8 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -3503,8 +3534,8 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -3518,8 +3549,8 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -3533,8 +3564,8 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -3548,8 +3579,8 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -3563,8 +3594,8 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -3578,8 +3609,8 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -3593,8 +3624,8 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -3608,8 +3639,8 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
@@ -3623,8 +3654,8 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -3638,8 +3669,8 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -3653,8 +3684,8 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
@@ -3668,8 +3699,8 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
@@ -3683,8 +3714,8 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
@@ -3698,8 +3729,8 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
@@ -3713,8 +3744,8 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3743,9 +3774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3838,174 +3867,184 @@
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="42" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F6" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H6" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I6" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13" t="s">
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13" t="s">
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13" t="s">
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-    </row>
     <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
@@ -4074,7 +4113,7 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1539500715" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -4224,40 +4263,40 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
         <v>64</v>
       </c>
     </row>

--- a/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
+++ b/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="176">
   <si>
     <t>共通設定</t>
   </si>
@@ -103,6 +103,12 @@
     <t>MemoryGB</t>
   </si>
   <si>
+    <t>ESXi</t>
+  </si>
+  <si>
+    <t>192.168.10.100</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
@@ -389,14 +395,6 @@
   </si>
   <si>
     <t>0. 事前準備</t>
-  </si>
-  <si>
-    <t>* VMWare ESXi サーバの構成情報を採取します</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>* .\template\VMWare_ESXi が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します</t>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>* VMWare Power CLI は v6.x が必要です。 最新のPowerCLI 10.x はAPIの互換性がないためサポート外になります</t>
@@ -406,6 +404,249 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検査対象サーバのIPを入力します。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>* VMWare ESXi サーバの構成情報を採取します</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>* .\template\VMWare_ESXi が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>作成したプロジェクトディレクトリを移動します</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
     <t>1. プロジェクトディレクトリの作成と移動</t>
     <rPh sb="16" eb="18">
       <t>サクセイ</t>
@@ -435,16 +676,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>作成したプロジェクトディレクトリを移動します</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>インベントリ採取実行後、同ディレクトリで 各サーバプラットフォームの HW構成情報収集します</t>
     <rPh sb="21" eb="22">
       <t>カク</t>
@@ -452,14 +683,8 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>2. 検査シート編集</t>
-  </si>
-  <si>
     <t>「.\template\VMWare_ESXi\ESXiチェックシート.xlsx」(本ファイル)を開きます。</t>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
   </si>
   <si>
     <t>検査するシナリオID ESXi を指定します。</t>
@@ -469,67 +694,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>対象サーバ</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
-    <rPh sb="9" eb="11">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>IPアドレス</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>検査対象サーバのIPを入力します。</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
-    <rPh sb="0" eb="2">
-      <t>コウジュツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>テンプレートID</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>(オプション)  別シートの値の比較用テンプレートシートのID ESXi を入力します。</t>
     <rPh sb="9" eb="10">
       <t>ベツ</t>
@@ -599,97 +763,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>特定パスワード</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
-    <rPh sb="8" eb="10">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>比較対象</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
-    <rPh sb="14" eb="16">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>CPU数</t>
     <rPh sb="3" eb="4">
       <t>スウ</t>
@@ -697,6 +770,10 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
+    <t>メモリ[MB]</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
     <t>(オプション) 比較項目で対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
     <rPh sb="8" eb="10">
       <t>ヒカク</t>
@@ -737,30 +814,16 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>メモリ[MB]</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>入力例：</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ESXi</t>
-  </si>
-  <si>
-    <t>192.168.10.100</t>
-  </si>
-  <si>
-    <t>3. 設定ファイル(config.groovy)編集</t>
-  </si>
-  <si>
-    <t>設定ファイルを編集します。</t>
+    <t>// ESXi接続情報</t>
+  </si>
+  <si>
+    <t>account.VMHost.Test.vCenter  = '192.168.10.100'</t>
+  </si>
+  <si>
+    <t>account.VMHost.Test.user     = 'test_user'</t>
+  </si>
+  <si>
+    <t>account.VMHost.Test.password = 'P@ssword'</t>
   </si>
   <si>
     <t>notepad++ .\template\VMWare_ESXi\config_esxi.groovy</t>
@@ -800,106 +863,59 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>// ESXi接続情報</t>
-  </si>
-  <si>
-    <t>account.VMHost.Test.vCenter  = '192.168.10.100'</t>
-  </si>
-  <si>
-    <t>account.VMHost.Test.user     = 'test_user'</t>
-  </si>
-  <si>
-    <t>account.VMHost.Test.password = 'P@ssword'</t>
-  </si>
-  <si>
-    <t>4. Getconfig インベントリ収集実行</t>
-  </si>
-  <si>
-    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>getconfig -c .\template\VMWare_ESXi\config_esxi.groovy</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>5. 実行結果の参照とコミット</t>
-  </si>
-  <si>
-    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
-  </si>
-  <si>
-    <t>dir .\build</t>
-  </si>
-  <si>
-    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
-  </si>
-  <si>
-    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
-  </si>
-  <si>
-    <t>getconfig -u local</t>
-  </si>
-  <si>
-    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>getconfig -u db</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>map</t>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>_redmine:IAサーバ</t>
   </si>
   <si>
     <t>OS名</t>
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>CPU数</t>
     <rPh sb="3" eb="4">
       <t>カズ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>MEM容量</t>
     <rPh sb="3" eb="5">
       <t>ヨウリョウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>_redmine:IAサーバ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>選択プラットフォーム</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ESXi</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -951,13 +967,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1116,25 +1125,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1296,14 +1297,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1347,10 +1345,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -1362,67 +1360,76 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1431,20 +1438,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1760,662 +1757,661 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="19" style="18" customWidth="1"/>
-    <col min="4" max="5" width="13.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="18" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="14" style="18" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="18" customWidth="1"/>
-    <col min="11" max="12" width="13.625" style="18" customWidth="1"/>
-    <col min="13" max="1018" width="8.75" style="18" customWidth="1"/>
-    <col min="1019" max="1020" width="11.625" style="18" customWidth="1"/>
-    <col min="1021" max="1025" width="8.75" style="18" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="18"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="12" width="13.625" customWidth="1"/>
+    <col min="13" max="1018" width="8.75" customWidth="1"/>
+    <col min="1019" max="1020" width="11.625" customWidth="1"/>
+    <col min="1021" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="A2" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="31" t="s">
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31" t="s">
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31" t="s">
+      <c r="D22" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="30"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="31"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="33" t="s">
+      <c r="I33" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="32" t="s">
         <v>8</v>
       </c>
       <c r="K33" s="33" t="s">
@@ -2424,37 +2420,37 @@
       <c r="L33" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="31" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="34" t="s">
@@ -2463,29 +2459,29 @@
       <c r="L34" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="35">
         <v>1</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="F35" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="35" t="s">
         <v>22</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>147</v>
       </c>
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
@@ -2496,12 +2492,12 @@
       <c r="L35" s="35">
         <v>24</v>
       </c>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="31"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="36">
         <v>2</v>
       </c>
@@ -2515,12 +2511,12 @@
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="36">
         <v>3</v>
       </c>
@@ -2534,12 +2530,12 @@
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="31"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="36">
         <v>4</v>
       </c>
@@ -2553,12 +2549,12 @@
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="31"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="36">
         <v>5</v>
       </c>
@@ -2572,12 +2568,12 @@
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="31"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="36">
         <v>6</v>
       </c>
@@ -2591,12 +2587,12 @@
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="31"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="36">
         <v>7</v>
       </c>
@@ -2610,12 +2606,12 @@
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="31"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="36">
         <v>8</v>
       </c>
@@ -2629,12 +2625,12 @@
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="31"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="36">
         <v>9</v>
       </c>
@@ -2648,12 +2644,12 @@
       <c r="J43" s="36"/>
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="31"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="36">
         <v>10</v>
       </c>
@@ -2667,659 +2663,672 @@
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
+      <c r="A46" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="31"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="30"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="31"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="30"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="31"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="30"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="31"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="30"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="31"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="30"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="31"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="30"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
+      <c r="A60" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="31"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="30"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
+      <c r="A66" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="31"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="30"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="31"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
-      <c r="O72" s="31"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31"/>
-      <c r="O73" s="31"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="31"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="31"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="30"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="31"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="30"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="31"/>
-      <c r="O80" s="31"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="30"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3340,9 +3349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3362,18 +3369,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="16"/>
@@ -3466,7 +3473,7 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3481,7 +3488,7 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3496,7 +3503,7 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3511,7 +3518,7 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3526,7 +3533,7 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3541,7 +3548,7 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3556,7 +3563,7 @@
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3571,7 +3578,7 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3586,7 +3593,7 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3601,7 +3608,7 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3616,7 +3623,7 @@
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3631,7 +3638,7 @@
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3646,7 +3653,7 @@
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -3661,7 +3668,7 @@
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -3676,7 +3683,7 @@
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3691,7 +3698,7 @@
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -3706,7 +3713,7 @@
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3721,7 +3728,7 @@
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -3736,7 +3743,7 @@
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -3760,6 +3767,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$83:$C$84</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1539500715" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
@@ -3774,7 +3791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3824,227 +3841,227 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="41" t="s">
+      <c r="A4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="41" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="41" t="s">
+      <c r="H6" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42" t="s">
+      <c r="I6" s="37" t="s">
         <v>46</v>
       </c>
+      <c r="J6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="38" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42" t="s">
-        <v>48</v>
+      <c r="A7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42" t="s">
-        <v>50</v>
+      <c r="A8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
     </row>
     <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
@@ -4113,7 +4130,7 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1539500715" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -4145,33 +4162,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4264,40 +4281,40 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4306,338 +4323,338 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4688,13 +4705,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>

--- a/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
+++ b/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="テンプレート(ESXi)" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$P$82</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="196">
   <si>
     <t>共通設定</t>
   </si>
@@ -106,9 +106,6 @@
     <t>ESXi</t>
   </si>
   <si>
-    <t>192.168.10.100</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
   </si>
   <si>
     <t>ドメイン</t>
-  </si>
-  <si>
-    <t>接続IP</t>
   </si>
   <si>
     <t>OS名</t>
@@ -407,9 +401,6 @@
     <t>2. 検査シート編集</t>
   </si>
   <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
-  </si>
-  <si>
     <t>対象サーバ</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
@@ -439,17 +430,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>IPアドレス</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>検査対象サーバのIPを入力します。</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>ユーザID</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -625,10 +605,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>getconfig -u db</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>* VMWare ESXi サーバの構成情報を採取します</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -909,6 +885,178 @@
   <si>
     <t>ESXi</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>remote_alias</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>エイリアス名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CiscoUCS</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>内臓ディスク</t>
+    <rPh sb="0" eb="2">
+      <t>ナイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>disk</t>
+  </si>
+  <si>
+    <t>virtual_drive</t>
+  </si>
+  <si>
+    <t>共通設定</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>* vCenter配下の場合は、vCenter にアクセスし、ESXi単体の構成の場合は直接ESXiサーバにアクセスします</t>
+    <rPh sb="9" eb="11">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>チョクセツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>エイリアス名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>remote_alias</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>esxi1</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>esxi1.local</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)が必須入力項目となります。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>(オプション)  vCenter配下の場合は、vCenter で登録したホスト名を入力します。ESXi単体構成の場合は未記入にします。</t>
+    <rPh sb="16" eb="18">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ミキニュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>192.168.10.100</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>検査対象サーバのIPを入力します。</t>
+  </si>
+  <si>
+    <t>Redmine プラグインデータへのロード</t>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+  </si>
+  <si>
+    <t>Redmine チケット登録</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>getconfig -rp {Redmineプロジェクト名}</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -1043,7 +1191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1296,6 +1444,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1305,7 +1490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1426,13 +1611,55 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1757,27 +1984,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="3.625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="12" width="13.625" customWidth="1"/>
-    <col min="13" max="1018" width="8.75" customWidth="1"/>
-    <col min="1019" max="1020" width="11.625" customWidth="1"/>
-    <col min="1021" max="1025" width="8.75" customWidth="1"/>
+    <col min="4" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="14" width="13.625" customWidth="1"/>
+    <col min="15" max="1020" width="8.75" customWidth="1"/>
+    <col min="1021" max="1022" width="11.625" customWidth="1"/>
+    <col min="1023" max="1027" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1793,10 +2020,12 @@
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1812,8 +2041,10 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -1829,11 +2060,13 @@
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -1848,11 +2081,13 @@
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="30"/>
       <c r="B5" s="30" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -1867,11 +2102,13 @@
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -1886,10 +2123,14 @@
       <c r="M6" s="30"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="B7" s="30" t="s">
+        <v>118</v>
+      </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
@@ -1903,11 +2144,11 @@
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="30" t="s">
-        <v>150</v>
-      </c>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -1922,9 +2163,13 @@
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
+        <v>144</v>
+      </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -1939,12 +2184,12 @@
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="30" t="s">
-        <v>151</v>
-      </c>
+      <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
@@ -1958,11 +2203,13 @@
       <c r="M10" s="30"/>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
       <c r="B11" s="30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -1977,11 +2224,13 @@
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
       <c r="B12" s="30" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -1996,10 +2245,14 @@
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
+      <c r="B13" s="30" t="s">
+        <v>146</v>
+      </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
@@ -2013,11 +2266,11 @@
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -2032,9 +2285,13 @@
       <c r="M14" s="30"/>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="30" t="s">
+        <v>119</v>
+      </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -2049,12 +2306,12 @@
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="30" t="s">
-        <v>153</v>
-      </c>
+      <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
@@ -2068,11 +2325,13 @@
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
       <c r="B17" s="30" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -2087,10 +2346,14 @@
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="B18" s="30" t="s">
+        <v>185</v>
+      </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
@@ -2104,16 +2367,14 @@
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
-      <c r="C19" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>154</v>
-      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -2125,15 +2386,19 @@
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
       <c r="O19" s="30"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="30" t="s">
+        <v>186</v>
+      </c>
       <c r="C20" s="30" t="s">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -2146,15 +2411,19 @@
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="30" t="s">
+        <v>186</v>
+      </c>
       <c r="C21" s="30" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -2167,15 +2436,19 @@
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="30" t="s">
+        <v>186</v>
+      </c>
       <c r="C22" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>128</v>
+        <v>189</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>191</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -2188,15 +2461,19 @@
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+      <c r="B23" s="30" t="s">
+        <v>186</v>
+      </c>
       <c r="C23" s="30" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -2209,15 +2486,17 @@
       <c r="M23" s="30"/>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -2230,15 +2509,19 @@
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
       <c r="O24" s="30"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
+      <c r="B25" s="30" t="s">
+        <v>186</v>
+      </c>
       <c r="C25" s="30" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -2251,15 +2534,17 @@
       <c r="M25" s="30"/>
       <c r="N25" s="30"/>
       <c r="O25" s="30"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -2272,15 +2557,17 @@
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
       <c r="O26" s="30"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -2293,15 +2580,17 @@
       <c r="M27" s="30"/>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -2314,12 +2603,18 @@
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
       <c r="O28" s="30"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>154</v>
+      </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
@@ -2331,14 +2626,18 @@
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>154</v>
+      </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
@@ -2350,8 +2649,10 @@
       <c r="M30" s="30"/>
       <c r="N30" s="30"/>
       <c r="O30" s="30"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -2367,343 +2668,383 @@
       <c r="M31" s="30"/>
       <c r="N31" s="30"/>
       <c r="O31" s="30"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
+      <c r="B32" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
       <c r="O32" s="30"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="33" t="s">
-        <v>10</v>
-      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
       <c r="M33" s="30"/>
       <c r="N33" s="30"/>
       <c r="O33" s="30"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
-      <c r="B34" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
       <c r="N34" s="30"/>
       <c r="O34" s="30"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
-      <c r="B35" s="35">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35">
+      <c r="D35" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="35">
-        <v>24</v>
-      </c>
-      <c r="M35" s="30"/>
+      <c r="G35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
-      <c r="B36" s="36">
-        <v>2</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="30"/>
+      <c r="B36" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="30"/>
-      <c r="B37" s="36">
-        <v>3</v>
-      </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="30"/>
+      <c r="B37" s="35">
+        <v>1</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35">
+        <v>4</v>
+      </c>
+      <c r="M37" s="35">
+        <v>24</v>
+      </c>
       <c r="N37" s="30"/>
       <c r="O37" s="30"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="30"/>
       <c r="B38" s="36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
+      <c r="E38" s="50"/>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
+      <c r="H38" s="50"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
-      <c r="M38" s="30"/>
+      <c r="M38" s="36"/>
       <c r="N38" s="30"/>
       <c r="O38" s="30"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
+      <c r="E39" s="50"/>
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
+      <c r="H39" s="50"/>
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
-      <c r="M39" s="30"/>
+      <c r="M39" s="36"/>
       <c r="N39" s="30"/>
       <c r="O39" s="30"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
+      <c r="E40" s="50"/>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
+      <c r="H40" s="50"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
-      <c r="M40" s="30"/>
+      <c r="M40" s="36"/>
       <c r="N40" s="30"/>
       <c r="O40" s="30"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
+      <c r="E41" s="50"/>
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="H41" s="50"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
-      <c r="M41" s="30"/>
+      <c r="M41" s="36"/>
       <c r="N41" s="30"/>
       <c r="O41" s="30"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
+      <c r="E42" s="50"/>
       <c r="F42" s="36"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
+      <c r="H42" s="50"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
-      <c r="M42" s="30"/>
+      <c r="M42" s="36"/>
       <c r="N42" s="30"/>
       <c r="O42" s="30"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
+      <c r="E43" s="50"/>
       <c r="F43" s="36"/>
       <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
+      <c r="H43" s="50"/>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
-      <c r="M43" s="30"/>
+      <c r="M43" s="36"/>
       <c r="N43" s="30"/>
       <c r="O43" s="30"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
+      <c r="E44" s="50"/>
       <c r="F44" s="36"/>
       <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
+      <c r="H44" s="50"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
-      <c r="M44" s="30"/>
+      <c r="M44" s="36"/>
       <c r="N44" s="30"/>
       <c r="O44" s="30"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
+      <c r="B45" s="36">
+        <v>9</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
       <c r="N45" s="30"/>
       <c r="O45" s="30"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A46" s="30"/>
+      <c r="B46" s="36">
+        <v>10</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
       <c r="N46" s="30"/>
       <c r="O46" s="30"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -2719,12 +3060,14 @@
       <c r="M47" s="30"/>
       <c r="N47" s="30"/>
       <c r="O47" s="30"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30" t="s">
-        <v>136</v>
-      </c>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A48" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
@@ -2738,8 +3081,10 @@
       <c r="M48" s="30"/>
       <c r="N48" s="30"/>
       <c r="O48" s="30"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -2755,27 +3100,31 @@
       <c r="M49" s="30"/>
       <c r="N49" s="30"/>
       <c r="O49" s="30"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="20"/>
+      <c r="B50" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
       <c r="O50" s="30"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -2791,27 +3140,31 @@
       <c r="M51" s="30"/>
       <c r="N51" s="30"/>
       <c r="O51" s="30"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="30"/>
-      <c r="B52" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B52" s="30"/>
+      <c r="C52" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="30"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -2827,68 +3180,74 @@
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
       <c r="O53" s="30"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="23"/>
+      <c r="B54" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
       <c r="O54" s="30"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="26"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
       <c r="O55" s="30"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
-      <c r="C56" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="30"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C56" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="30"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
-      <c r="C57" s="24" t="s">
-        <v>163</v>
-      </c>
+      <c r="C57" s="24"/>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
@@ -2899,65 +3258,75 @@
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="30"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="30"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
-      <c r="C58" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="30"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C58" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="30"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="30"/>
       <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="30" t="s">
-        <v>137</v>
-      </c>
+      <c r="C59" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="30"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A60" s="30"/>
       <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C60" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="30"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -2973,12 +3342,14 @@
       <c r="M61" s="30"/>
       <c r="N61" s="30"/>
       <c r="O61" s="30"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30" t="s">
-        <v>138</v>
-      </c>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A62" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
@@ -2992,8 +3363,10 @@
       <c r="M62" s="30"/>
       <c r="N62" s="30"/>
       <c r="O62" s="30"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="30"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -3009,27 +3382,31 @@
       <c r="M63" s="30"/>
       <c r="N63" s="30"/>
       <c r="O63" s="30"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="20"/>
+      <c r="B64" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
       <c r="O64" s="30"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
@@ -3045,27 +3422,31 @@
       <c r="M65" s="30"/>
       <c r="N65" s="30"/>
       <c r="O65" s="30"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A66" s="30"/>
       <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C66" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="30"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
@@ -3081,12 +3462,14 @@
       <c r="M67" s="30"/>
       <c r="N67" s="30"/>
       <c r="O67" s="30"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30" t="s">
-        <v>140</v>
-      </c>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A68" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="30"/>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
       <c r="E68" s="30"/>
@@ -3100,8 +3483,10 @@
       <c r="M68" s="30"/>
       <c r="N68" s="30"/>
       <c r="O68" s="30"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="30"/>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
@@ -3117,27 +3502,31 @@
       <c r="M69" s="30"/>
       <c r="N69" s="30"/>
       <c r="O69" s="30"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P69" s="30"/>
+      <c r="Q69" s="30"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="20"/>
+      <c r="B70" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
       <c r="O70" s="30"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="30"/>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
@@ -3153,31 +3542,33 @@
       <c r="M71" s="30"/>
       <c r="N71" s="30"/>
       <c r="O71" s="30"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="30"/>
-      <c r="B72" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="30"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B72" s="30"/>
+      <c r="C72" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="30"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="30"/>
-      <c r="B73" s="30" t="s">
-        <v>143</v>
-      </c>
+      <c r="B73" s="30"/>
       <c r="C73" s="30"/>
       <c r="D73" s="30"/>
       <c r="E73" s="30"/>
@@ -3191,10 +3582,14 @@
       <c r="M73" s="30"/>
       <c r="N73" s="30"/>
       <c r="O73" s="30"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P73" s="30"/>
+      <c r="Q73" s="30"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
+      <c r="B74" s="30" t="s">
+        <v>137</v>
+      </c>
       <c r="C74" s="30"/>
       <c r="D74" s="30"/>
       <c r="E74" s="30"/>
@@ -3208,27 +3603,31 @@
       <c r="M74" s="30"/>
       <c r="N74" s="30"/>
       <c r="O74" s="30"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P74" s="30"/>
+      <c r="Q74" s="30"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="20"/>
+      <c r="B75" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
       <c r="O75" s="30"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P75" s="30"/>
+      <c r="Q75" s="30"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
@@ -3244,27 +3643,31 @@
       <c r="M76" s="30"/>
       <c r="N76" s="30"/>
       <c r="O76" s="30"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="30"/>
-      <c r="B77" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="30"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B77" s="30"/>
+      <c r="C77" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="30"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="30"/>
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
@@ -3280,27 +3683,31 @@
       <c r="M78" s="30"/>
       <c r="N78" s="30"/>
       <c r="O78" s="30"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="20"/>
+      <c r="B79" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
       <c r="O79" s="30"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P79" s="30"/>
+      <c r="Q79" s="30"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
@@ -3316,24 +3723,147 @@
       <c r="M80" s="30"/>
       <c r="N80" s="30"/>
       <c r="O80" s="30"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
-        <v>173</v>
-      </c>
-      <c r="C82" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C84" t="s">
-        <v>175</v>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="30"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="30"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="30"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="30"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>167</v>
+      </c>
+      <c r="C88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C90" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="K32:L32"/>
+  <mergeCells count="1">
+    <mergeCell ref="D34:K34"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3347,42 +3877,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="4" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="1017" width="8.75" customWidth="1"/>
-    <col min="1018" max="1019" width="11.625" customWidth="1"/>
-    <col min="1020" max="1024" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="12" width="13.625" customWidth="1"/>
+    <col min="13" max="1018" width="8.75" customWidth="1"/>
+    <col min="1019" max="1020" width="11.625" customWidth="1"/>
+    <col min="1021" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="16"/>
       <c r="B2" s="16" t="s">
         <v>1</v>
@@ -3390,7 +3923,7 @@
       <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="40" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="16" t="s">
@@ -3399,23 +3932,26 @@
       <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -3425,7 +3961,7 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="45" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3434,23 +3970,26 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -3462,302 +4001,318 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="14">
-        <v>4</v>
-      </c>
-      <c r="K4" s="14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="15"/>
+      <c r="J5" s="2"/>
       <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="15"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="15"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="15"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="15"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="15"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="15"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="15"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3771,7 +4326,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>利用手順!$C$83:$C$84</xm:f>
+            <xm:f>利用手順!$C$89:$C$90</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>
@@ -3791,16 +4346,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.25" style="3" customWidth="1"/>
-    <col min="2" max="4" width="11.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="3" customWidth="1"/>
-    <col min="7" max="8" width="12.75" style="3" customWidth="1"/>
-    <col min="9" max="10" width="27.25" style="3" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.25" style="3" customWidth="1"/>
+    <col min="6" max="7" width="12.75" style="3" customWidth="1"/>
+    <col min="8" max="10" width="27.25" style="3" customWidth="1"/>
     <col min="11" max="12" width="13.625" style="3" customWidth="1"/>
     <col min="13" max="13" width="12.25" style="3" customWidth="1"/>
     <col min="14" max="14" width="24.75" style="3" customWidth="1"/>
@@ -3841,61 +4398,59 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>14</v>
-      </c>
+      <c r="D4" s="37"/>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
@@ -3904,76 +4459,76 @@
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
       <c r="L4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="38" t="s">
         <v>40</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="37"/>
+      <c r="D5" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37" t="s">
+        <v>164</v>
+      </c>
       <c r="G5" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>171</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
       <c r="L5" s="37"/>
       <c r="M5" s="37"/>
       <c r="N5" s="38" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="D6" s="37" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="H6" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="37" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="37" t="s">
         <v>45</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>47</v>
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
       <c r="N6" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -3982,20 +4537,22 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="I7" s="37" t="s">
+        <v>176</v>
+      </c>
       <c r="J7" s="37"/>
       <c r="K7" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
       <c r="N7" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -4004,19 +4561,23 @@
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="I8" s="37" t="s">
+        <v>177</v>
+      </c>
       <c r="J8" s="37"/>
       <c r="K8" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="37"/>
+      <c r="A9" s="37" t="s">
+        <v>174</v>
+      </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
@@ -4024,12 +4585,18 @@
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="I9" s="37" t="s">
+        <v>178</v>
+      </c>
       <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
+      <c r="K9" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
-      <c r="N9" s="38"/>
+      <c r="N9" s="38" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="39"/>
@@ -4072,7 +4639,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -4088,7 +4655,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -4104,7 +4671,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -4120,7 +4687,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -4162,33 +4729,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4281,40 +4848,40 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -4323,338 +4890,338 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="E23" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4705,13 +5272,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>

--- a/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
+++ b/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="209">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -637,6 +637,42 @@
   <si>
     <t>getconfig -c .\template\VMWare_ESXi\config_esxi.groovy -rp {Redmineプロジェクト名}</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>機種</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="2">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>S/N</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>chassis.productname</t>
+  </si>
+  <si>
+    <t>chassis.productid</t>
+  </si>
+  <si>
+    <t>chassis.sn</t>
+  </si>
+  <si>
+    <t>HSI_SPN</t>
+  </si>
+  <si>
+    <t>HSI_PRODUCTID</t>
+  </si>
+  <si>
+    <t>HSI_SBSN</t>
   </si>
 </sst>
 </file>
@@ -700,7 +736,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -857,8 +893,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1176,6 +1218,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1185,7 +1242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,6 +1360,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1318,7 +1378,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1827,7 +1899,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="38"/>
-      <c r="B9" s="44"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="38" t="s">
         <v>6</v>
       </c>
@@ -1848,7 +1920,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="38"/>
-      <c r="B10" s="44"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="38" t="s">
         <v>7</v>
       </c>
@@ -1869,7 +1941,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
-      <c r="B11" s="44"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="38" t="s">
         <v>8</v>
       </c>
@@ -2458,16 +2530,16 @@
       <c r="C38" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="42"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
       <c r="N38" s="26"/>
@@ -3649,19 +3721,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="13"/>
@@ -4092,27 +4164,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML15"/>
+  <dimension ref="A1:AMO15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.25" style="3" customWidth="1"/>
     <col min="2" max="3" width="11.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.25" style="3" customWidth="1"/>
-    <col min="6" max="7" width="12.75" style="3" customWidth="1"/>
-    <col min="8" max="10" width="27.25" style="3" customWidth="1"/>
-    <col min="11" max="12" width="13.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="24.75" style="3" customWidth="1"/>
-    <col min="15" max="1026" width="8.75" style="3" customWidth="1"/>
+    <col min="4" max="6" width="13.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.25" style="3" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="3" customWidth="1"/>
+    <col min="11" max="13" width="27.25" style="3" customWidth="1"/>
+    <col min="14" max="15" width="13.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="3" customWidth="1"/>
+    <col min="17" max="17" width="24.75" style="3" customWidth="1"/>
+    <col min="18" max="1029" width="8.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -4127,8 +4198,11 @@
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -4143,8 +4217,11 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -4154,41 +4231,50 @@
       <c r="C3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>106</v>
       </c>
@@ -4198,161 +4284,197 @@
       <c r="C4" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="P4" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="Q4" s="33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>111</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="J5" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="H6" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="I6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="J6" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="K6" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32" t="s">
+      <c r="L6" s="32"/>
+      <c r="M6" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="33" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
+      <c r="D7" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>208</v>
+      </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32" t="s">
+      <c r="M8" s="32"/>
+      <c r="N8" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33" t="s">
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>128</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>205</v>
+      </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32" t="s">
+      <c r="M9" s="32"/>
+      <c r="N9" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33" t="s">
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -4361,14 +4483,17 @@
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+    </row>
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -4377,14 +4502,17 @@
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -4393,14 +4521,17 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -4409,14 +4540,17 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4425,14 +4559,17 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -4441,6 +4578,9 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>

--- a/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
+++ b/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="215">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -475,124 +475,79 @@
     <t>vCenter情報のホスト情報を検索します</t>
   </si>
   <si>
-    <t>├─CPUコア数</t>
-  </si>
-  <si>
     <t>CPUコア数</t>
   </si>
   <si>
     <t>CpuTotalMhz</t>
   </si>
   <si>
-    <t>├─CPUクロック</t>
-  </si>
-  <si>
     <t>CPUクロック</t>
   </si>
   <si>
-    <t>├─メモリ容量</t>
-  </si>
-  <si>
     <t>メモリ容量</t>
   </si>
   <si>
     <t>LicenseKey</t>
   </si>
   <si>
-    <t>├─ライセンス</t>
-  </si>
-  <si>
     <t>ライセンス</t>
   </si>
   <si>
-    <t>├─プロセッサタイプ</t>
-  </si>
-  <si>
     <t>プロセッサタイプ</t>
   </si>
   <si>
-    <t>├─バージョン</t>
-  </si>
-  <si>
     <t>バージョン</t>
   </si>
   <si>
     <t>Build</t>
   </si>
   <si>
-    <t>├─ビルド</t>
-  </si>
-  <si>
     <t>ビルド</t>
   </si>
   <si>
     <t>FirewallDefaultPolicy</t>
   </si>
   <si>
-    <t>├─ファイヤーウォールポリシー</t>
-  </si>
-  <si>
     <t>ファイヤーウォールポリシー</t>
   </si>
   <si>
     <t>HyperthreadingActive</t>
   </si>
   <si>
-    <t>├─ハイパースレッディング</t>
-  </si>
-  <si>
     <t>ハイパースレッディング</t>
   </si>
   <si>
     <t>TimeZone</t>
   </si>
   <si>
-    <t>├─タイムゾーン</t>
-  </si>
-  <si>
     <t>タイムゾーン</t>
   </si>
   <si>
     <t>PowerState</t>
   </si>
   <si>
-    <t>├─電源状態</t>
-  </si>
-  <si>
     <t>電源状態</t>
   </si>
   <si>
     <t>VMSwapfilePolicy</t>
   </si>
   <si>
-    <t>├─スワップポリシー</t>
-  </si>
-  <si>
     <t>スワップポリシー</t>
   </si>
   <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>├─メーカー</t>
-  </si>
-  <si>
     <t>メーカー</t>
   </si>
   <si>
     <t>StorageInfo</t>
   </si>
   <si>
-    <t>├─ストレージ</t>
-  </si>
-  <si>
     <t>ストレージ</t>
   </si>
   <si>
     <t>NetworkInfo</t>
-  </si>
-  <si>
-    <t>└─ネットワーク</t>
   </si>
   <si>
     <t>ネットワーク</t>
@@ -673,6 +628,93 @@
   </si>
   <si>
     <t>HSI_SBSN</t>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>OS設定</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>OSリリース</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ビルド</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ライセンス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ファイヤーウォールポリシー</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ハイパースレッディング</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タイムゾーン</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>電源状態</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>スワップポリシー</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メーカー</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CPUクロック</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プロセッサタイプ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メモリ容量</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -1242,7 +1284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1363,6 +1405,33 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1377,21 +1446,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1715,7 +1769,7 @@
   </sheetPr>
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2530,16 +2584,16 @@
       <c r="C38" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="42"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
       <c r="N38" s="26"/>
@@ -3242,7 +3296,7 @@
       <c r="A70" s="26"/>
       <c r="B70" s="26"/>
       <c r="C70" s="14" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
@@ -3625,7 +3679,7 @@
       <c r="A89" s="26"/>
       <c r="B89" s="26"/>
       <c r="C89" s="14" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
@@ -3700,7 +3754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3721,19 +3775,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="13"/>
@@ -4231,14 +4285,14 @@
       <c r="C3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>202</v>
+      <c r="D3" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>96</v>
@@ -4284,9 +4338,9 @@
       <c r="C4" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -4311,14 +4365,14 @@
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
-      <c r="D5" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>202</v>
+      <c r="D5" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>187</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>112</v>
@@ -4346,9 +4400,9 @@
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="32" t="s">
         <v>116</v>
       </c>
@@ -4381,14 +4435,14 @@
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
-      <c r="D7" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>208</v>
+      <c r="D7" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>193</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -4414,9 +4468,9 @@
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
@@ -4441,14 +4495,14 @@
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>205</v>
+      <c r="D9" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>190</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -4472,9 +4526,9 @@
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -4491,9 +4545,9 @@
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -4510,9 +4564,9 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -4529,9 +4583,9 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -4548,9 +4602,9 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4567,9 +4621,9 @@
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -4691,425 +4745,492 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK25"/>
+  <dimension ref="A1:AML25"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="48.5" style="3" customWidth="1"/>
-    <col min="7" max="8" width="8.5" style="3" customWidth="1"/>
-    <col min="9" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="1025" width="8.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="3" customWidth="1"/>
+    <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="1026" width="8.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>138</v>
+      <c r="B4" s="45" t="s">
+        <v>194</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>140</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B8" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="E15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="9" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="9" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="9" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="F20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="9"/>
+      <c r="B21" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>120</v>
+      <c r="B22" s="47" t="s">
+        <v>197</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G22" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>119</v>
+      <c r="B23" s="47" t="s">
+        <v>197</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G23" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>192</v>
+      <c r="B24" s="47" t="s">
+        <v>197</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G24" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="47" t="s">
         <v>195</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>197</v>
+      <c r="G25" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
+++ b/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
@@ -469,9 +469,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>ホスト情報</t>
-  </si>
-  <si>
     <t>vCenter情報のホスト情報を検索します</t>
   </si>
   <si>
@@ -539,12 +536,6 @@
   </si>
   <si>
     <t>メーカー</t>
-  </si>
-  <si>
-    <t>StorageInfo</t>
-  </si>
-  <si>
-    <t>ストレージ</t>
   </si>
   <si>
     <t>NetworkInfo</t>
@@ -661,10 +652,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>OSリリース</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>ビルド</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -714,6 +701,28 @@
   </si>
   <si>
     <t>メモリ容量</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ホスト状態</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>システム情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Parent</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>クラスター</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1284,7 +1293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1422,9 +1431,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1769,7 +1775,9 @@
   </sheetPr>
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2584,16 +2592,16 @@
       <c r="C38" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="51"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="50"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
       <c r="N38" s="26"/>
@@ -3296,7 +3304,7 @@
       <c r="A70" s="26"/>
       <c r="B70" s="26"/>
       <c r="C70" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
@@ -3679,7 +3687,7 @@
       <c r="A89" s="26"/>
       <c r="B89" s="26"/>
       <c r="C89" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
@@ -3775,19 +3783,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="13"/>
@@ -3867,24 +3875,24 @@
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3900,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4286,13 +4294,13 @@
         <v>95</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>96</v>
@@ -4366,13 +4374,13 @@
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="D5" s="43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>112</v>
@@ -4436,13 +4444,13 @@
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
       <c r="D7" s="43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -4496,13 +4504,13 @@
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="43" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -4751,7 +4759,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="24" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.625" style="3" customWidth="1"/>
@@ -4764,7 +4772,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="48"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4773,7 +4781,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="48"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4782,7 +4790,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
-      <c r="B3" s="48"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4794,7 +4802,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>140</v>
@@ -4814,59 +4822,59 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
-      <c r="B5" s="47" t="s">
-        <v>201</v>
+      <c r="B5" s="46" t="s">
+        <v>212</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
-      <c r="B6" s="47" t="s">
-        <v>201</v>
+      <c r="B6" s="46" t="s">
+        <v>212</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="47" t="s">
-        <v>201</v>
+      <c r="B7" s="46" t="s">
+        <v>212</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4874,10 +4882,10 @@
         <v>143</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>121</v>
@@ -4887,272 +4895,272 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="47" t="s">
-        <v>198</v>
+      <c r="B9" s="46" t="s">
+        <v>195</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="47" t="s">
-        <v>198</v>
+      <c r="B10" s="46" t="s">
+        <v>195</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="47" t="s">
-        <v>198</v>
+      <c r="B11" s="46" t="s">
+        <v>195</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>162</v>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>213</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>163</v>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="47" t="s">
-        <v>198</v>
+      <c r="B13" s="46" t="s">
+        <v>195</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="47" t="s">
-        <v>198</v>
+      <c r="B14" s="46" t="s">
+        <v>195</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="47" t="s">
-        <v>199</v>
+      <c r="B15" s="46" t="s">
+        <v>195</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="47" t="s">
-        <v>199</v>
+      <c r="B16" s="46" t="s">
+        <v>196</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="47" t="s">
-        <v>199</v>
+      <c r="B17" s="46" t="s">
+        <v>196</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
-      <c r="B18" s="47" t="s">
-        <v>200</v>
+      <c r="B18" s="46" t="s">
+        <v>196</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
-      <c r="B19" s="47" t="s">
-        <v>196</v>
+      <c r="B19" s="46" t="s">
+        <v>197</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>196</v>
+      <c r="A20" s="9"/>
+      <c r="B20" s="46" t="s">
+        <v>193</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="47" t="s">
-        <v>197</v>
+      <c r="B21" s="46" t="s">
+        <v>193</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="G21" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>197</v>
+      <c r="B22" s="46" t="s">
+        <v>194</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>121</v>
@@ -5168,8 +5176,8 @@
       <c r="A23" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>197</v>
+      <c r="B23" s="46" t="s">
+        <v>194</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>178</v>
@@ -5191,14 +5199,14 @@
       <c r="A24" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="47" t="s">
-        <v>197</v>
+      <c r="B24" s="46" t="s">
+        <v>194</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>121</v>
@@ -5207,21 +5215,21 @@
         <v>143</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>195</v>
+      <c r="B25" s="46" t="s">
+        <v>192</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>121</v>
@@ -5230,13 +5238,13 @@
         <v>143</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>

--- a/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
+++ b/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
@@ -3762,7 +3762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3884,8 +3884,12 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="30">
+        <v>4</v>
+      </c>
+      <c r="L4" s="30">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -4763,8 +4767,9 @@
     <col min="2" max="2" width="12.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="24" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="48.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="3" customWidth="1"/>
     <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
     <col min="10" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="1026" width="8.5" style="3" customWidth="1"/>
@@ -4811,13 +4816,13 @@
         <v>138</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4831,12 +4836,12 @@
       <c r="D5" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4850,12 +4855,12 @@
       <c r="D6" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4869,12 +4874,12 @@
       <c r="D7" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4890,12 +4895,12 @@
       <c r="D8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4909,12 +4914,12 @@
       <c r="D9" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4928,12 +4933,12 @@
       <c r="D10" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4947,12 +4952,12 @@
       <c r="D11" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4966,12 +4971,12 @@
       <c r="D12" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4985,12 +4990,12 @@
       <c r="D13" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5004,12 +5009,12 @@
       <c r="D14" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5023,12 +5028,12 @@
       <c r="D15" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5042,12 +5047,12 @@
       <c r="D16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5061,12 +5066,12 @@
       <c r="D17" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5080,12 +5085,12 @@
       <c r="D18" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5099,12 +5104,12 @@
       <c r="D19" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5118,12 +5123,12 @@
       <c r="D20" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5140,13 +5145,13 @@
         <v>120</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5163,13 +5168,13 @@
         <v>174</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5186,13 +5191,13 @@
         <v>177</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5209,13 +5214,13 @@
         <v>119</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5232,13 +5237,13 @@
         <v>169</v>
       </c>
       <c r="E25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
+++ b/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="テンプレート(ESXi)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$P$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$P$88</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="217">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>notepad++ .\template\VMWare_ESXi\config_esxi.groovy</t>
-  </si>
-  <si>
-    <t>以下の各検査対象の接続情報を編集します。vCenterサーバで管理している場合はvCenterの接続情報を、ESXiサーバ単独の場合は ESXi の接続情報を入力してください。</t>
   </si>
   <si>
     <t>// ESXi接続情報</t>
@@ -723,6 +720,18 @@
   </si>
   <si>
     <t>クラスター</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>account.VMHost.Test.standalone = false</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>以下の接続情報を編集します。vCenter 管理化のESXiホストの場合、「account.VMHost.{アカウントID}.vCenter」 に記載したvCenterサーバにアクセスして情報採取を行います。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>vCenter がない独立した ESXi ホストの場合、「account.VMHost.{アカウントID}.standalone」 を true の設定にします。直接、ESXi ホストにアクセスして情報採取をします。</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1773,10 +1782,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3061,7 +3070,7 @@
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="26"/>
       <c r="B58" s="26" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -3081,7 +3090,9 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
+      <c r="B59" s="26" t="s">
+        <v>216</v>
+      </c>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
@@ -3101,49 +3112,47 @@
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="26"/>
       <c r="B60" s="26"/>
-      <c r="C60" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="19"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="26"/>
       <c r="B61" s="26"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="22"/>
+      <c r="C61" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="19"/>
       <c r="Q61" s="26"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="26"/>
       <c r="B62" s="26"/>
-      <c r="C62" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C62" s="20"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
@@ -3163,7 +3172,7 @@
       <c r="A63" s="26"/>
       <c r="B63" s="26"/>
       <c r="C63" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
@@ -3183,62 +3192,64 @@
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="26"/>
       <c r="B64" s="26"/>
-      <c r="C64" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="25"/>
+      <c r="C64" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="22"/>
       <c r="Q64" s="26"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="26"/>
       <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
+      <c r="C65" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="22"/>
       <c r="Q65" s="26"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A66" s="26" t="s">
-        <v>74</v>
-      </c>
+      <c r="A66" s="26"/>
       <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
+      <c r="C66" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="25"/>
       <c r="Q66" s="26"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
@@ -3261,10 +3272,10 @@
       <c r="Q67" s="26"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26" t="s">
-        <v>75</v>
-      </c>
+      <c r="A68" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="26"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
@@ -3302,23 +3313,23 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="16"/>
+      <c r="B70" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
       <c r="Q70" s="26"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.15">
@@ -3341,24 +3352,24 @@
       <c r="Q71" s="26"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A72" s="26" t="s">
-        <v>76</v>
-      </c>
+      <c r="A72" s="26"/>
       <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
+      <c r="C72" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="16"/>
       <c r="Q72" s="26"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
@@ -3381,10 +3392,10 @@
       <c r="Q73" s="26"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26" t="s">
-        <v>77</v>
-      </c>
+      <c r="A74" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="26"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
@@ -3422,23 +3433,23 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="16"/>
+      <c r="B76" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
       <c r="Q76" s="26"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
@@ -3462,30 +3473,28 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="26"/>
-      <c r="B78" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="16"/>
       <c r="Q78" s="26"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="26"/>
-      <c r="B79" s="26" t="s">
-        <v>80</v>
-      </c>
+      <c r="B79" s="26"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
@@ -3504,7 +3513,9 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
+      <c r="B80" s="26" t="s">
+        <v>78</v>
+      </c>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
@@ -3523,23 +3534,23 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="16"/>
+      <c r="B81" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
       <c r="Q81" s="26"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.15">
@@ -3563,23 +3574,23 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83" s="26"/>
-      <c r="B83" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="16"/>
       <c r="Q83" s="26"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.15">
@@ -3603,10 +3614,10 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26" t="s">
-        <v>83</v>
-      </c>
+      <c r="B85" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="26"/>
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
       <c r="F85" s="26"/>
@@ -3625,89 +3636,89 @@
     <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86" s="26"/>
       <c r="B86" s="26"/>
-      <c r="C86" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="16"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
       <c r="Q86" s="26"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A87" s="26"/>
       <c r="B87" s="26"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
+      <c r="C87" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="26"/>
       <c r="Q87" s="26"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A88" s="26"/>
       <c r="B88" s="26"/>
-      <c r="C88" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="26"/>
-      <c r="P88" s="26"/>
+      <c r="C88" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="16"/>
       <c r="Q88" s="26"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A89" s="26"/>
       <c r="B89" s="26"/>
-      <c r="C89" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="16"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
       <c r="Q89" s="26"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A90" s="26"/>
       <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
+      <c r="C90" s="26" t="s">
+        <v>84</v>
+      </c>
       <c r="D90" s="26"/>
       <c r="E90" s="26"/>
       <c r="F90" s="26"/>
@@ -3723,17 +3734,57 @@
       <c r="P90" s="26"/>
       <c r="Q90" s="26"/>
     </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="26"/>
+    </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" t="s">
         <v>86</v>
       </c>
-      <c r="C92" t="s">
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="C96" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="C94" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3762,7 +3813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3806,7 +3857,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>42</v>
@@ -3815,7 +3866,7 @@
         <v>43</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>44</v>
@@ -3844,7 +3895,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>53</v>
@@ -3853,7 +3904,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>56</v>
@@ -3884,12 +3935,8 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="30">
-        <v>4</v>
-      </c>
-      <c r="L4" s="30">
-        <v>24</v>
-      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -4212,7 +4259,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>利用手順!$C$93:$C$94</xm:f>
+            <xm:f>利用手順!$C$95:$C$96</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>
@@ -4289,63 +4336,63 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>106</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>107</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>50</v>
@@ -4362,39 +4409,39 @@
       <c r="M4" s="32"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="Q4" s="33" t="s">
         <v>109</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="D5" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="F5" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>184</v>
-      </c>
       <c r="G5" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="32" t="s">
         <v>113</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>114</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
@@ -4403,12 +4450,12 @@
       <c r="O5" s="32"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -4416,45 +4463,45 @@
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="32" t="s">
         <v>116</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>117</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>59</v>
       </c>
       <c r="J6" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="32" t="s">
         <v>118</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>119</v>
       </c>
       <c r="L6" s="32"/>
       <c r="M6" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N6" s="32"/>
       <c r="O6" s="32"/>
       <c r="P6" s="32"/>
       <c r="Q6" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
       <c r="D7" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="F7" s="43" t="s">
         <v>189</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>190</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -4462,21 +4509,21 @@
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M7" s="32"/>
       <c r="N7" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -4489,32 +4536,32 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
       <c r="L8" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M8" s="32"/>
       <c r="N8" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="F9" s="43" t="s">
         <v>186</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>187</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -4522,16 +4569,16 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
       <c r="L9" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M9" s="32"/>
       <c r="N9" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
@@ -4683,33 +4730,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4807,443 +4854,443 @@
         <v>64</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>176</v>
-      </c>
       <c r="G22" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>179</v>
-      </c>
       <c r="G23" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>171</v>
-      </c>
       <c r="G25" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5294,13 +5341,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>

--- a/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
+++ b/template/VMWare_ESXi/blank_ESXiチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -409,9 +409,6 @@
     <t>iLO</t>
   </si>
   <si>
-    <t>disk</t>
-  </si>
-  <si>
     <t>nic</t>
   </si>
   <si>
@@ -732,6 +729,10 @@
   </si>
   <si>
     <t>vCenter がない独立した ESXi ホストの場合、「account.VMHost.{アカウントID}.standalone」 を true の設定にします。直接、ESXi ホストにアクセスして情報採取をします。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>hdd</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1784,7 +1785,7 @@
   </sheetPr>
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -3070,7 +3071,7 @@
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="26"/>
       <c r="B58" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -3091,7 +3092,7 @@
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="26"/>
       <c r="B59" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
@@ -3193,7 +3194,7 @@
       <c r="A64" s="26"/>
       <c r="B64" s="26"/>
       <c r="C64" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
@@ -3355,7 +3356,7 @@
       <c r="A72" s="26"/>
       <c r="B72" s="26"/>
       <c r="C72" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -3738,7 +3739,7 @@
       <c r="A91" s="26"/>
       <c r="B91" s="26"/>
       <c r="C91" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
@@ -4279,7 +4280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMO15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4345,13 +4346,13 @@
         <v>94</v>
       </c>
       <c r="D3" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="F3" s="41" t="s">
         <v>182</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>183</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>95</v>
@@ -4425,13 +4426,13 @@
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="D5" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="F5" s="43" t="s">
         <v>182</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>183</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>111</v>
@@ -4495,13 +4496,13 @@
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
       <c r="D7" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="F7" s="43" t="s">
         <v>188</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>189</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -4536,32 +4537,32 @@
       <c r="J8" s="32"/>
       <c r="K8" s="32"/>
       <c r="L8" s="32" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="M8" s="32"/>
       <c r="N8" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="F9" s="43" t="s">
         <v>185</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>186</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -4569,16 +4570,16 @@
       <c r="J9" s="32"/>
       <c r="K9" s="32"/>
       <c r="L9" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M9" s="32"/>
       <c r="N9" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
@@ -4730,16 +4731,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4747,16 +4748,16 @@
         <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4854,38 +4855,38 @@
         <v>64</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>115</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>120</v>
@@ -4894,17 +4895,17 @@
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>120</v>
@@ -4913,17 +4914,17 @@
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>120</v>
@@ -4931,20 +4932,20 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>120</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>120</v>
@@ -4953,17 +4954,17 @@
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>120</v>
@@ -4972,17 +4973,17 @@
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>120</v>
@@ -4991,17 +4992,17 @@
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>120</v>
@@ -5010,17 +5011,17 @@
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="46"/>
       <c r="B12" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>120</v>
@@ -5029,17 +5030,17 @@
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>120</v>
@@ -5048,17 +5049,17 @@
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>120</v>
@@ -5067,17 +5068,17 @@
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>120</v>
@@ -5086,17 +5087,17 @@
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>120</v>
@@ -5105,17 +5106,17 @@
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>120</v>
@@ -5124,17 +5125,17 @@
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>120</v>
@@ -5143,17 +5144,17 @@
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>120</v>
@@ -5162,17 +5163,17 @@
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>120</v>
@@ -5180,10 +5181,10 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>100</v>
@@ -5192,10 +5193,10 @@
         <v>119</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>120</v>
@@ -5203,22 +5204,22 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>120</v>
@@ -5226,22 +5227,22 @@
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>120</v>
@@ -5249,10 +5250,10 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>98</v>
@@ -5261,10 +5262,10 @@
         <v>118</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>120</v>
@@ -5272,22 +5273,22 @@
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>120</v>
@@ -5341,7 +5342,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>120</v>
